--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>600159.3315575415</v>
+        <v>597720.9415991249</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.62632626619</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43.98226791336596</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933827</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>115.013833414418</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>150.3013276789172</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>21.82230259246267</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>97.32228826426997</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>127.3385186497849</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>210.8035104954929</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>185.879129232137</v>
+        <v>275.0428790940291</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90.24368809167447</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>219.4520895768776</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349719</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>233.2715658672508</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.8234217232735</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819337</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>60.64713141731565</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238295</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2918698186448</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>109.805885627459</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365923</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>151.8555862333562</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,10 +2612,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699838</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712548</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238261</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1243.280836875046</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C2" t="n">
-        <v>874.3183199346347</v>
+        <v>926.2736972002929</v>
       </c>
       <c r="D2" t="n">
-        <v>874.3183199346347</v>
+        <v>568.0079985935424</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>568.0079985935424</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>568.0079985935424</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>152.9355484385389</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416652</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>218.3316393401806</v>
       </c>
       <c r="V4" t="n">
-        <v>804.7114165106916</v>
+        <v>218.3316393401806</v>
       </c>
       <c r="W4" t="n">
-        <v>515.2942464737309</v>
+        <v>218.3316393401806</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.591601078693</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.591601078693</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>927.325902471943</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>541.5376498736987</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>130.5517450840911</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4571,7 +4571,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649821</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379707</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118627</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142815</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.1368827450974</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C7" t="n">
-        <v>195.1368827450974</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>195.1368827450974</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
         <v>66.51211643218339</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>507.434506214537</v>
       </c>
       <c r="V7" t="n">
-        <v>666.2025176122977</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>376.7853475753371</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>376.7853475753371</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.7853475753371</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1384.829779622644</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.867262682232</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.867262682232</v>
+        <v>1063.934757721592</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881546</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923657</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923657</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.429619686766</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228021</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450105</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450105</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>507.5323442946291</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V10" t="n">
-        <v>507.5323442946291</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W10" t="n">
-        <v>507.5323442946291</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="X10" t="n">
-        <v>507.5323442946291</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.5323442946291</v>
+        <v>474.5166334391243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555042</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614631</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.19673200788</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.408479409636</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>742.4225746200284</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>328.4394675364348</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779263</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412851</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385036</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>2133.192111344164</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1078.556427399</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>909.620244471093</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>759.5036050587572</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>611.5905114763641</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>464.7005639784537</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>297.4863691530326</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.516429368668</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.516429368668</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>2071.440215683395</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1816.755727477508</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1527.338557440547</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1299.34900654253</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1078.556427399</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,43 +5285,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191926</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845745</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400352</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639639</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327688</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048619</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925262</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>296.7882229101331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,28 +5753,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>985.7836617409704</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C22" t="n">
-        <v>816.8474788130635</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D22" t="n">
-        <v>666.7308394007277</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E22" t="n">
-        <v>518.8177458183346</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F22" t="n">
-        <v>371.9277983204242</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>204.7316990353042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2160.315914855605</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1905.631426649718</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1388.22470571474</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y22" t="n">
-        <v>1167.43212657121</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,7 +6072,7 @@
         <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
         <v>680.0291294438176</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,28 +6239,28 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400737</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121668</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138436</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="29">
@@ -6458,19 +6458,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6695,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,7 +6716,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>209.1075153972906</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>177.736188713411</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>250.6254964739545</v>
       </c>
       <c r="I2" t="n">
-        <v>22.13594195695118</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>75.40832771011998</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.29152613728991</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.29152613729352</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>19.63056806868042</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>104.8770068749532</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.204026273936473e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>32.8926045705993</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459422</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>30.48882721876488</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>65.54986409393206</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844822853</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038982</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.5956654067449</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>938689.0531258112</v>
+        <v>938689.0531258113</v>
       </c>
     </row>
     <row r="3">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503242</v>
+        <v>375475.6212503241</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321414</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190152</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="G2" t="n">
-        <v>403573.2998450032</v>
-      </c>
       <c r="H2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="I2" t="n">
         <v>403573.299845003</v>
@@ -26338,16 +26338,16 @@
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189855</v>
+        <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.2631150422</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832914</v>
+        <v>81924.2786383293</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355705008</v>
+        <v>3077.017355704461</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53591.37877567914</v>
+        <v>53591.37877567923</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>14820.16342064201</v>
@@ -26442,7 +26442,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26454,7 +26454,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26479,10 +26479,10 @@
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1114794.443814341</v>
+        <v>-1114969.67013275</v>
       </c>
       <c r="C6" t="n">
+        <v>208990.2002666956</v>
+      </c>
+      <c r="D6" t="n">
         <v>208990.2002666955</v>
       </c>
-      <c r="D6" t="n">
-        <v>208990.2002666959</v>
-      </c>
       <c r="E6" t="n">
-        <v>-27302.46493445065</v>
+        <v>-27348.36993001622</v>
       </c>
       <c r="F6" t="n">
-        <v>276171.8108641864</v>
+        <v>276137.0729387517</v>
       </c>
       <c r="G6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="H6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537927</v>
       </c>
       <c r="I6" t="n">
-        <v>287624.0739792289</v>
+        <v>287589.3360537928</v>
       </c>
       <c r="J6" t="n">
-        <v>70092.87158195124</v>
+        <v>70058.13365651523</v>
       </c>
       <c r="K6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537928</v>
       </c>
       <c r="L6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537927</v>
       </c>
       <c r="M6" t="n">
-        <v>205699.7953408994</v>
+        <v>205665.0574154636</v>
       </c>
       <c r="N6" t="n">
-        <v>284547.0566235237</v>
+        <v>284512.3186980885</v>
       </c>
       <c r="O6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537929</v>
       </c>
       <c r="P6" t="n">
-        <v>287624.0739792286</v>
+        <v>287589.3360537929</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
-        <v>9.93445162528883</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>328.7438349237143</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.56299777364143</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>328.7438349237136</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12.56299777364279</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237136</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237136</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>229.1398570283004</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19.4409878159748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27585,19 +27585,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>137.12380990941</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>389.0994230609908</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>11.86547352390588</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>19.09544399678431</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,22 +27822,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>41.3341328283351</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>196.0512408401248</v>
+        <v>106.8874909782327</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>89.58829209026283</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>66.75974862873525</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29332,10 +29332,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-2.600178789511234e-12</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026452</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735817</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848223</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>615.6579511813131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870023</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359785</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.139375506915</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104633</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>484.3162390979798</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556927</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164529</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>20.54758114884936</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>451.8478747603109</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
